--- a/Selenium-Scripts/src/DigitalApp_IOS_Identifiers.xlsx
+++ b/Selenium-Scripts/src/DigitalApp_IOS_Identifiers.xlsx
@@ -3,21 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3502CC33-E9C1-6F44-A4EA-88D879B7E5DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F894E9C-0051-3546-BCF7-0B5AA9513A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="4460" windowWidth="23040" windowHeight="9200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="1220" windowWidth="23040" windowHeight="13420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
-    <sheet name="StartingPage" sheetId="3" r:id="rId2"/>
-    <sheet name="LoginPage" sheetId="4" r:id="rId3"/>
-    <sheet name="HomeMovePage" sheetId="11" r:id="rId4"/>
-    <sheet name="Menu" sheetId="5" r:id="rId5"/>
-    <sheet name="HelpAndSupportPage" sheetId="10" r:id="rId6"/>
-    <sheet name="FeedBackPage" sheetId="7" r:id="rId7"/>
-    <sheet name="detailsPage" sheetId="12" r:id="rId8"/>
+    <sheet name="UDMigrationPPMPage" sheetId="14" r:id="rId2"/>
+    <sheet name="StartingPage" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginPage" sheetId="4" r:id="rId4"/>
+    <sheet name="HomeMovePage" sheetId="11" r:id="rId5"/>
+    <sheet name="Menu" sheetId="5" r:id="rId6"/>
+    <sheet name="HelpAndSupportPage" sheetId="10" r:id="rId7"/>
+    <sheet name="FeedBackPage" sheetId="7" r:id="rId8"/>
+    <sheet name="detailsPage" sheetId="12" r:id="rId9"/>
+    <sheet name="PlansAndAddonsPage" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
   <si>
     <t>Key</t>
   </si>
@@ -182,21 +184,12 @@
     <t>manageTab</t>
   </si>
   <si>
-    <t>//android.widget.LinearLayout[@content-desc='Manage']</t>
-  </si>
-  <si>
     <t>Plan</t>
   </si>
   <si>
-    <t>//android.widget.TextView[@resource-id='com.Etisalat.ETIDA:id/planNameTv']</t>
-  </si>
-  <si>
     <t>HomeMove</t>
   </si>
   <si>
-    <t>//android.widget.TextView[@text='Home move']</t>
-  </si>
-  <si>
     <t>//XCUIElementTypeStaticText[@name="NOT NOW"]</t>
   </si>
   <si>
@@ -221,51 +214,214 @@
     <t>//XCUIElementTypeTextField[@name="Lato-Regular"]</t>
   </si>
   <si>
+    <t>//XCUIElementTypeStaticText[@name="CONFIRM LOCATION"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="CONTINUE"]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="NeoTechAlt"])[4]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Lato-Medium"])[2]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name=".SFUI-Regular"])[6]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@value = "Home move"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="SET FROM MAP"]</t>
+  </si>
+  <si>
+    <t>etisalatShop</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@value = "Etisalat Shop"]</t>
+  </si>
+  <si>
+    <t>freedomPlan</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="NeoTechAlt-Medium"])[1]</t>
+  </si>
+  <si>
+    <t>selectPlan</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Lato-Bold"])[2]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeButton[@name="Lato-Bold"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="SUBMIT REQUEST"]</t>
+  </si>
+  <si>
+    <t>submitButton</t>
+  </si>
+  <si>
     <r>
-      <t>//XCUIElementTypeStaticText[@value = "</t>
+      <t>//XCUIElementTypeStaticText[@name="Floor, Apt or Villa No*"]</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue For Number"/>
+        <sz val="12"/>
+        <color rgb="FF17C6A3"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
-      <t>World Trade Center Mall</t>
+      <t xml:space="preserve">/following-sibling:: </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Helvetica Neue"/>
         <family val="2"/>
       </rPr>
-      <t>"]</t>
+      <t>XCUIElementTypeTextField</t>
     </r>
   </si>
   <si>
-    <t>//XCUIElementTypeStaticText[@name="CONFIRM LOCATION"]</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeStaticText[@name="Floor, Apt or Villa No*"]</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeStaticText[@name="CONTINUE"]</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeButton[`label == "I ACKNOWLEDGE"`]</t>
-  </si>
-  <si>
-    <t>(//XCUIElementTypeStaticText[@name="NeoTechAlt"])[4]</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeButton[@value="SET FROM MAP"]</t>
+    <t>(//XCUIElementTypeStaticText[@name="CONTINUE"])[2]</t>
+  </si>
+  <si>
+    <t>continuee</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="NeoTechAlt"])[2]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="NeoTechAlt"])[5]</t>
+  </si>
+  <si>
+    <t>selectDate</t>
+  </si>
+  <si>
+    <t>selectTime</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="NeoTechAlt"])[9]</t>
+  </si>
+  <si>
+    <t>MigrationMenu</t>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout[3]/android.widget.TextView[@text='Etisalat Shop']</t>
+  </si>
+  <si>
+    <t>PostpaidMenu</t>
+  </si>
+  <si>
+    <t>//android.view.ViewGroup[2]/android.widget.TextView[@text='2,000 Flexi Minutes']</t>
+  </si>
+  <si>
+    <t>PostpaidSelect</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='12-month commitment']</t>
+  </si>
+  <si>
+    <t>continueButton</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@text='CONTINUE']</t>
+  </si>
+  <si>
+    <t>choseNumber</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@text='050 315 8258']</t>
+  </si>
+  <si>
+    <t>cn_continueButton</t>
+  </si>
+  <si>
+    <t>YesIAcceptRadio</t>
+  </si>
+  <si>
+    <t>//android.widget.ImageView[@resource-id='com.Etisalat.ETIDA:id/rb_accept']</t>
+  </si>
+  <si>
+    <t>YesIAcceptButton</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@text='YES, I ACCEPT']</t>
+  </si>
+  <si>
+    <t>GoToCartButton</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@text='GO TO CART']</t>
+  </si>
+  <si>
+    <t>CheckoutButton</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@text='CHECKOUT NOW']</t>
+  </si>
+  <si>
+    <t>ContactDetailsContinueButton</t>
+  </si>
+  <si>
+    <t>DeliveryContinueButton</t>
+  </si>
+  <si>
+    <t>PlaceOrderButton</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@text='PLACE ORDER']</t>
+  </si>
+  <si>
+    <t>AECBCheck</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name=".SFUI-Regular"])[3]</t>
+  </si>
+  <si>
+    <t>chooseNumber</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name=".SFUI-Regular"])[2]</t>
+  </si>
+  <si>
+    <t>yesIAccepcheckbox</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="YES, I ACCEPT"]</t>
+  </si>
+  <si>
+    <t>Value Type</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>SET FROM MAP</t>
+  </si>
+  <si>
+    <t>setFromMapsss</t>
+  </si>
+  <si>
+    <t>AccessibilityId</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="NeoTechAlt"]</t>
+  </si>
+  <si>
+    <t>TelephoneNumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,27 +508,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF297BDE"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica Neue For Number"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica Neue For Number"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF17C6A3"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -416,7 +609,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -436,14 +629,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -739,56 +940,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16">
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19">
+      <c r="A6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -797,17 +1047,269 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A664840-122E-7A4C-AD94-CC2D4B414D46}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C186CD58-5D2E-CC4D-BDCF-56032C4F6D69}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -840,20 +1342,21 @@
         <v>37</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -875,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -883,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -891,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -900,105 +1403,6 @@
       </c>
       <c r="B5" s="10" t="s">
         <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19">
-      <c r="A2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="22">
-      <c r="A3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="19">
-      <c r="A4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="22">
-      <c r="A5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19">
-      <c r="A6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19">
-      <c r="A7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="22">
-      <c r="A8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="19">
-      <c r="A9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="19">
-      <c r="A10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1007,6 +1411,211 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16">
+      <c r="A5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16">
+      <c r="A6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19">
+      <c r="A7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16">
+      <c r="A8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16">
+      <c r="A9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16">
+      <c r="A10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19">
+      <c r="A11" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16">
+      <c r="A12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16">
+      <c r="A13" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16">
+      <c r="A14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16">
+      <c r="A15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16">
+      <c r="A16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1049,7 +1658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1148,12 +1757,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1191,53 +1800,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
+      <c r="B4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Selenium-Scripts/src/DigitalApp_IOS_Identifiers.xlsx
+++ b/Selenium-Scripts/src/DigitalApp_IOS_Identifiers.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F894E9C-0051-3546-BCF7-0B5AA9513A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ECE73F-6B7A-1444-804C-B93AAFA2AA96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1220" windowWidth="23040" windowHeight="13420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="1500" windowWidth="23040" windowHeight="13420" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="UDMigrationPPMPage" sheetId="14" r:id="rId2"/>
     <sheet name="StartingPage" sheetId="3" r:id="rId3"/>
-    <sheet name="LoginPage" sheetId="4" r:id="rId4"/>
-    <sheet name="HomeMovePage" sheetId="11" r:id="rId5"/>
-    <sheet name="Menu" sheetId="5" r:id="rId6"/>
-    <sheet name="HelpAndSupportPage" sheetId="10" r:id="rId7"/>
-    <sheet name="FeedBackPage" sheetId="7" r:id="rId8"/>
-    <sheet name="detailsPage" sheetId="12" r:id="rId9"/>
-    <sheet name="PlansAndAddonsPage" sheetId="13" r:id="rId10"/>
+    <sheet name="RechargeHistoryPage" sheetId="15" r:id="rId4"/>
+    <sheet name="PostEnhancementPage" sheetId="16" r:id="rId5"/>
+    <sheet name="LoginPage" sheetId="4" r:id="rId6"/>
+    <sheet name="HomeMovePage" sheetId="11" r:id="rId7"/>
+    <sheet name="Menu" sheetId="5" r:id="rId8"/>
+    <sheet name="CollectionNotificationPage" sheetId="18" r:id="rId9"/>
+    <sheet name="HelpAndSupportPage" sheetId="10" r:id="rId10"/>
+    <sheet name="FeedBackPage" sheetId="7" r:id="rId11"/>
+    <sheet name="detailsPage" sheetId="12" r:id="rId12"/>
+    <sheet name="PlansAndAddonsPage" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="252">
   <si>
     <t>Key</t>
   </si>
@@ -285,9 +288,6 @@
     </r>
   </si>
   <si>
-    <t>(//XCUIElementTypeStaticText[@name="CONTINUE"])[2]</t>
-  </si>
-  <si>
     <t>continuee</t>
   </si>
   <si>
@@ -408,20 +408,555 @@
     <t>setFromMapsss</t>
   </si>
   <si>
-    <t>AccessibilityId</t>
-  </si>
-  <si>
     <t>//XCUIElementTypeStaticText[@name="NeoTechAlt"]</t>
   </si>
   <si>
     <t>TelephoneNumber</t>
+  </si>
+  <si>
+    <t>Rechargehistory</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name=".SFUI-Regular"])[1]</t>
+  </si>
+  <si>
+    <t>BillPayment</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Lato-Bold"])[1]</t>
+  </si>
+  <si>
+    <t>RechargeSuccess</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Lato-Bold"])[3]</t>
+  </si>
+  <si>
+    <t>Receipt</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@label = "Receipt"]</t>
+  </si>
+  <si>
+    <t>selectuserplan</t>
+  </si>
+  <si>
+    <t>Myaddon</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name=".SFUI-Regular"])[8]</t>
+  </si>
+  <si>
+    <t>SelectsubPlan</t>
+  </si>
+  <si>
+    <t>CancelSubscripation</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Lato-Regular"])[15]</t>
+  </si>
+  <si>
+    <t>Viewdetails</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@label="Cancel subscription"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@label="View details"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@value="49.00 AED"]/parent::XCUIElementTypeCell</t>
+  </si>
+  <si>
+    <r>
+      <t>//XCUIElementTypeStaticText[@label="View details"]/parent::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>XCUIElementTypeCell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//XCUIElementTypeStaticText[@label="Cancel subscription"]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>/parent::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>XCUIElementTypeCell</t>
+    </r>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="YES, PLEASE!"]</t>
+  </si>
+  <si>
+    <t>YesPlease</t>
+  </si>
+  <si>
+    <t>PaymentSummaryTitle</t>
+  </si>
+  <si>
+    <r>
+      <t>//XCUIElementTypeStaticText[@value="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Payment Summary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
+    <t>PaymentSummaryMethod</t>
+  </si>
+  <si>
+    <t>PaymentSummaryDescription</t>
+  </si>
+  <si>
+    <t>StandardInstallationTitle</t>
+  </si>
+  <si>
+    <t>OneTimeCharge</t>
+  </si>
+  <si>
+    <t>OneTimeChargeValue</t>
+  </si>
+  <si>
+    <t>VATTitle</t>
+  </si>
+  <si>
+    <t>VATDescription</t>
+  </si>
+  <si>
+    <t>VATValue</t>
+  </si>
+  <si>
+    <t>HomeMoveRequestTitle</t>
+  </si>
+  <si>
+    <r>
+      <t>//XCUIElementTypeStaticText[@value="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>Payment method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@value="To be added to next bill"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@value="Standard installation"]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Lato-Regular"])[4]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@value="One time charge"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@value="VAT"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@value="Vat 5%"]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Lato-Regular"])[6]</t>
+  </si>
+  <si>
+    <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Lato-Regular"])[11]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@value="Home move request"]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Lato-Regular"])[12]</t>
+  </si>
+  <si>
+    <t>InstallationAdress</t>
+  </si>
+  <si>
+    <t>Moveoutdate</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Lato-Regular"])[13]</t>
+  </si>
+  <si>
+    <t>Installationdate</t>
+  </si>
+  <si>
+    <t>Yourcontactdetails</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Lato-Regular"])[17]</t>
+  </si>
+  <si>
+    <t>Packagename</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Lato-Regular"])[10]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="CHANGE NUMBER"]</t>
+  </si>
+  <si>
+    <t>ChangeNumber</t>
+  </si>
+  <si>
+    <t>Selectnumber</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name="Lato-Bold"])[2]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeApplication[@name="My Etisalat"]/XCUIElementTypeWindow[1]/XCUIElementTypeOther/XCUIElementTypeOther/XCUIElementTypeOther/XCUIElementTypeOther/XCUIElementTypeOther/XCUIElementTypeOther/XCUIElementTypeOther[2]/XCUIElementTypeTable/XCUIElementTypeCell[2]/XCUIElementTypeButton</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeButton[@name="Return"]</t>
+  </si>
+  <si>
+    <t>HideKeyboard</t>
+  </si>
+  <si>
+    <t>HomeMoveTitle</t>
+  </si>
+  <si>
+    <t>HomeMoveoption</t>
+  </si>
+  <si>
+    <r>
+      <t>//XCUIElementTypeStaticText[@value = "Moving home?"]/parent::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>XCUIElementTypeCell</t>
+    </r>
+  </si>
+  <si>
+    <t>HomeMoveHeading</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@value = "Home Move"]</t>
+  </si>
+  <si>
+    <t>ApplyInFewSteps</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@value ="Apply in a few easy steps:"]</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeButton[@name=".SFUI-Regular"])[10]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Lato-Heavy"]</t>
+  </si>
+  <si>
+    <t>ViewStatement</t>
+  </si>
+  <si>
+    <t>CalendarDropdown</t>
+  </si>
+  <si>
+    <t>LastMonthFilter</t>
+  </si>
+  <si>
+    <t>LastMonth</t>
+  </si>
+  <si>
+    <t>CurrentMonth</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@label="View statement"]/parent::XCUIElementTypeCell</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@label="This month"]/parent::XCUIElementTypeCell</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@value = "Last month"]/parent::XCUIElementTypeCell</t>
+  </si>
+  <si>
+    <r>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>XCUIElementTypeStaticText</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>[@value = "Last month"]/parent::XCUIElementTypeCell</t>
+    </r>
+  </si>
+  <si>
+    <t>//XCUIElementTypeApplication[@name="My Etisalat"]/XCUIElementTypeWindow[1]/XCUIElementTypeOther/XCUIElementTypeOther/XCUIElementTypeOther/XCUIElementTypeTable/XCUIElementTypeCell[1]/XCUIElementTypeOther[1]</t>
+  </si>
+  <si>
+    <t>PayNow</t>
+  </si>
+  <si>
+    <t>EditAmount</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@label="Payment"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@label="PAY NOW"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="CHANGE AMOUNT TO PAY"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeButton[@name="Done"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="UPDATE"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="NEXT"]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="PAY"]</t>
+  </si>
+  <si>
+    <t>Checkboxs</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[@name="Card number"]</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[@name="Payment"]/XCUIElementTypeOther[16]/XCUIElementTypeTextField[2]</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="2023"]</t>
+  </si>
+  <si>
+    <t>Selectyear</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[@name="Validation Code ( CVV/CVC/CID )"]</t>
+  </si>
+  <si>
+    <t>Cvv</t>
+  </si>
+  <si>
+    <t>NowPay</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeButton[@name="Pay"]</t>
+  </si>
+  <si>
+    <t>PaymentSuccess</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Lato-Regular"])[3]</t>
+  </si>
+  <si>
+    <t>AccountNO</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="OK"]</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>TotalAmmount</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="NeoTechAlt"])[1]</t>
+  </si>
+  <si>
+    <t>Receipt_Amount</t>
+  </si>
+  <si>
+    <t>Transaction_Date</t>
+  </si>
+  <si>
+    <t>Transaction_Name</t>
+  </si>
+  <si>
+    <t>transaction_name</t>
+  </si>
+  <si>
+    <t>Card_NO</t>
+  </si>
+  <si>
+    <t>card_no</t>
+  </si>
+  <si>
+    <t>transaction_date</t>
+  </si>
+  <si>
+    <t>Amounts</t>
+  </si>
+  <si>
+    <t>Transaction_reference_number</t>
+  </si>
+  <si>
+    <t>Transaction_Reference_Number</t>
+  </si>
+  <si>
+    <t>(//XCUIElementTypeStaticText[@name="Lato-Regular"])[1]</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="Variable"]</t>
+  </si>
+  <si>
+    <t>NotificationTab</t>
+  </si>
+  <si>
+    <r>
+      <t>//XCUIElementTypeStaticText[@value = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>VIEW BILL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
+    <t>ViewBill</t>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[@name="PAY NOW"]</t>
+  </si>
+  <si>
+    <t>InsideMessage</t>
+  </si>
+  <si>
+    <r>
+      <t>//XCUIElementTypeStaticText[@value = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>PAY BILLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
+    <t>PayBILLS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +1102,50 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF629755"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD53A06"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF9876AA"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -609,7 +1188,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -645,6 +1224,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -940,106 +1538,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="78" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16">
+    </row>
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="19">
+    </row>
+    <row r="6" spans="1:2" ht="19">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>115</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19">
+      <c r="A9" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19">
+      <c r="A11" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19">
+      <c r="B14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1048,16 +1664,240 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A664840-122E-7A4C-AD94-CC2D4B414D46}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="81.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19">
+      <c r="A6" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A664840-122E-7A4C-AD94-CC2D4B414D46}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="87.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1069,27 +1909,75 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>69</v>
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B4" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19">
+      <c r="A6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1132,7 +2020,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1140,10 +2028,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1151,15 +2039,15 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -1167,130 +2055,130 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16">
       <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>85</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16">
       <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16">
       <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>89</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
       <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16">
       <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16">
       <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>96</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16">
       <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>98</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16">
       <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16">
       <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>106</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1352,11 +2240,387 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB94C13-3861-6646-A656-8C964B6CFAD3}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="82.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19">
+      <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19">
+      <c r="A5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19">
+      <c r="A6" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19">
+      <c r="A7" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19">
+      <c r="A9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19">
+      <c r="A14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19">
+      <c r="A16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19">
+      <c r="A17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB3F150-44D9-F947-A5B1-179315456805}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="100.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60">
+      <c r="A4" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19">
+      <c r="A11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19">
+      <c r="A12" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19">
+      <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19">
+      <c r="A15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19">
+      <c r="A16" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19">
+      <c r="A17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19">
+      <c r="A18" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19">
+      <c r="A19" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19">
+      <c r="A20" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19">
+      <c r="A21" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19">
+      <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19">
+      <c r="A23" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19">
+      <c r="A24" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19">
+      <c r="A25" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1410,203 +2674,338 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16">
+    </row>
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16">
+    </row>
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16">
+    </row>
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16">
+    </row>
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16">
+    </row>
+    <row r="6" spans="1:2" ht="16">
       <c r="A6" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19">
+    </row>
+    <row r="7" spans="1:2" ht="48">
       <c r="A7" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19">
+      <c r="A8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16">
-      <c r="A8" s="16" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="19">
+      <c r="A9" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16">
-      <c r="A9" s="16" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16">
-      <c r="A10" s="16" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19">
+      <c r="A13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19">
-      <c r="A11" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16">
-      <c r="A12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16">
-      <c r="A13" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16">
-      <c r="A14" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16">
-      <c r="A15" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16">
-      <c r="A16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16">
+      <c r="A30" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16">
+      <c r="A32" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16">
+      <c r="A33" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16">
+      <c r="A34" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16">
+      <c r="A35" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16">
+      <c r="A36" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19">
+      <c r="A37" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16">
+      <c r="A38" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16">
+      <c r="A40" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1615,12 +3014,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1658,18 +3057,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B10"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB32AD3C-BE4D-3149-BCF2-BDB2C231DD47}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="72" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1681,182 +3080,59 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16">
+        <v>249</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16">
+        <v>201</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19">
+      <c r="A5" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="81.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16">
-      <c r="A2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16">
-      <c r="A3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
+        <v>241</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19">
+      <c r="A8" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
